--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H2">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.876357</v>
+        <v>4.47329</v>
       </c>
       <c r="N2">
-        <v>32.629071</v>
+        <v>13.41987</v>
       </c>
       <c r="O2">
-        <v>0.6153167079818749</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="P2">
-        <v>0.615316707981875</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="Q2">
-        <v>377.844587798215</v>
+        <v>0.4323628627566666</v>
       </c>
       <c r="R2">
-        <v>3400.601290183936</v>
+        <v>3.89126576481</v>
       </c>
       <c r="S2">
-        <v>0.1124348125107027</v>
+        <v>0.0002161226869941112</v>
       </c>
       <c r="T2">
-        <v>0.1124348125107027</v>
+        <v>0.0002161226869941112</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H3">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.048361</v>
       </c>
       <c r="O3">
-        <v>0.246065066795162</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="P3">
-        <v>0.2460650667951621</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="Q3">
-        <v>151.0999986327317</v>
+        <v>0.4203935445158888</v>
       </c>
       <c r="R3">
-        <v>1359.899987694585</v>
+        <v>3.783541900643</v>
       </c>
       <c r="S3">
-        <v>0.04496266604118042</v>
+        <v>0.0002101396541240093</v>
       </c>
       <c r="T3">
-        <v>0.04496266604118043</v>
+        <v>0.0002101396541240093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H4">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.45022</v>
+        <v>4.072757333333333</v>
       </c>
       <c r="N4">
-        <v>7.35066</v>
+        <v>12.218272</v>
       </c>
       <c r="O4">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="P4">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="Q4">
-        <v>85.1206305489</v>
+        <v>0.3936496448817777</v>
       </c>
       <c r="R4">
-        <v>766.0856749401</v>
+        <v>3.542846803935999</v>
       </c>
       <c r="S4">
-        <v>0.02532925558713951</v>
+        <v>0.0001967713379537144</v>
       </c>
       <c r="T4">
-        <v>0.02532925558713951</v>
+        <v>0.0001967713379537144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J5">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.876357</v>
+        <v>4.47329</v>
       </c>
       <c r="N5">
-        <v>32.629071</v>
+        <v>13.41987</v>
       </c>
       <c r="O5">
-        <v>0.6153167079818749</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="P5">
-        <v>0.615316707981875</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="Q5">
-        <v>1684.35848161385</v>
+        <v>692.7525413351567</v>
       </c>
       <c r="R5">
-        <v>15159.22633452466</v>
+        <v>6234.77287201641</v>
       </c>
       <c r="S5">
-        <v>0.501212763651394</v>
+        <v>0.3462821475941961</v>
       </c>
       <c r="T5">
-        <v>0.501212763651394</v>
+        <v>0.3462821475941962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H6">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I6">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J6">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>13.048361</v>
       </c>
       <c r="O6">
-        <v>0.246065066795162</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="P6">
-        <v>0.2460650667951621</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="Q6">
-        <v>673.5747248675692</v>
+        <v>673.5747248675693</v>
       </c>
       <c r="R6">
         <v>6062.172523808124</v>
       </c>
       <c r="S6">
-        <v>0.2004349151690855</v>
+        <v>0.3366958450167068</v>
       </c>
       <c r="T6">
-        <v>0.2004349151690855</v>
+        <v>0.3366958450167069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H7">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I7">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J7">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45022</v>
+        <v>4.072757333333333</v>
       </c>
       <c r="N7">
-        <v>7.35066</v>
+        <v>12.218272</v>
       </c>
       <c r="O7">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="P7">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="Q7">
-        <v>379.45139524382</v>
+        <v>630.7243645969885</v>
       </c>
       <c r="R7">
-        <v>3415.06255719438</v>
+        <v>5676.519281372896</v>
       </c>
       <c r="S7">
-        <v>0.1129129484949711</v>
+        <v>0.3152764868847488</v>
       </c>
       <c r="T7">
-        <v>0.1129129484949711</v>
+        <v>0.3152764868847488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H8">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.876357</v>
+        <v>4.47329</v>
       </c>
       <c r="N8">
-        <v>32.629071</v>
+        <v>13.41987</v>
       </c>
       <c r="O8">
-        <v>0.6153167079818749</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="P8">
-        <v>0.615316707981875</v>
+        <v>0.3468876470949054</v>
       </c>
       <c r="Q8">
-        <v>5.609227341086667</v>
+        <v>0.7789653007299998</v>
       </c>
       <c r="R8">
-        <v>50.48304606978</v>
+        <v>7.010687706569999</v>
       </c>
       <c r="S8">
-        <v>0.001669131819778222</v>
+        <v>0.0003893768137151314</v>
       </c>
       <c r="T8">
-        <v>0.001669131819778222</v>
+        <v>0.0003893768137151314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H9">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.048361</v>
       </c>
       <c r="O9">
-        <v>0.246065066795162</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="P9">
-        <v>0.2460650667951621</v>
+        <v>0.3372845821706862</v>
       </c>
       <c r="Q9">
-        <v>2.243129241331111</v>
+        <v>0.7574008131523332</v>
       </c>
       <c r="R9">
-        <v>20.18816317198</v>
+        <v>6.816607318370999</v>
       </c>
       <c r="S9">
-        <v>0.0006674855848961552</v>
+        <v>0.0003785974998554223</v>
       </c>
       <c r="T9">
-        <v>0.0006674855848961554</v>
+        <v>0.0003785974998554223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H10">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.45022</v>
+        <v>4.072757333333333</v>
       </c>
       <c r="N10">
-        <v>7.35066</v>
+        <v>12.218272</v>
       </c>
       <c r="O10">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="P10">
-        <v>0.1386182252229629</v>
+        <v>0.3158277707344083</v>
       </c>
       <c r="Q10">
-        <v>1.2636437932</v>
+        <v>0.7092177437546665</v>
       </c>
       <c r="R10">
-        <v>11.3727941388</v>
+        <v>6.382959693791999</v>
       </c>
       <c r="S10">
-        <v>0.0003760211408523087</v>
+        <v>0.000354512511705762</v>
       </c>
       <c r="T10">
-        <v>0.0003760211408523088</v>
+        <v>0.0003545125117057622</v>
       </c>
     </row>
   </sheetData>
